--- a/blogsite/edu/test.xlsx
+++ b/blogsite/edu/test.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -11,81 +11,8 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="122211"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
-  <si>
-    <t>题目</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>选项d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>正确答案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>aaa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b11111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ccc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>啊啊啊4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pīn yīn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关卡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -427,148 +354,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="3" max="3" width="12.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2131</v>
-      </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3">
-        <v>2131</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4">
-        <v>2131</v>
-      </c>
-      <c r="F4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>2131</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
